--- a/excel/BG-TP-S4/BG-TP-S4.xlsx
+++ b/excel/BG-TP-S4/BG-TP-S4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Downloads\backendBulletin-main\backendBulletin-main\excel\BG-TP-S4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\bulletin-espi\backend\excel\BG-TP-S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA6711B-83AF-4A5D-B0A4-687B221E6905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABD1448-599F-460C-A77F-335C8E9198A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="3240" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
